--- a/classfiers/chatty/welm/smote/chatty_welm_tanh_smote_results.xlsx
+++ b/classfiers/chatty/welm/smote/chatty_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5991285403050109</v>
+        <v>0.5807228915662651</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9758454106280193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7151702786377708</v>
+        <v>0.698961937716263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6201963241436926</v>
+        <v>0.7214906168710516</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.6216867469879518</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.3560975609756097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.691588785046729</v>
+        <v>0.4818481848184818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7938001292431672</v>
+        <v>0.6732520325203253</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.5686746987951807</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7239263803680982</v>
+        <v>0.5941043083900227</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7556053811659192</v>
+        <v>0.5542871107387237</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6797385620915033</v>
+        <v>0.7012048192771084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4914529914529914</v>
+        <v>0.6381909547738693</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6100795755968169</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8061348528015194</v>
+        <v>0.730108877721943</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7139737991266376</v>
+        <v>0.5603864734299517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9776785714285714</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7697715289982424</v>
+        <v>0.6591760299625468</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8060420482295482</v>
+        <v>0.5668859649122807</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6338622979516892</v>
+        <v>0.6065351260112916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8938263125763125</v>
+        <v>0.6807359825110126</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7021073097295315</v>
+        <v>0.6212096265689973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7563557471167692</v>
+        <v>0.6492049205528649</v>
       </c>
     </row>
   </sheetData>
